--- a/zss.test/src/test/java/org/zkoss/zss/issue/book/529-pagebreaks.xlsx
+++ b/zss.test/src/test/java/org/zkoss/zss/issue/book/529-pagebreaks.xlsx
@@ -388,6 +388,7 @@
       </c>
     </row>
   </sheetData>
+  <printOptions gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <colBreaks count="2" manualBreakCount="2">
